--- a/data/case1/9/V1_1.xlsx
+++ b/data/case1/9/V1_1.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999271873752</v>
+        <v>0.99999999440790988</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99492856060869683</v>
+        <v>0.99546598295946542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97640978425463243</v>
+        <v>0.97666940519947609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96860285141371416</v>
+        <v>0.96865985497642515</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.96127086688020547</v>
+        <v>0.96111935027633644</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94564616410245184</v>
+        <v>0.9451814911470352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94601294222357102</v>
+        <v>0.9424972618140921</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94445966637881062</v>
+        <v>0.93614667863048118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.94350432754044977</v>
+        <v>0.93066294666093596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.94350989641285588</v>
+        <v>0.92609014529050981</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.94370879851567402</v>
+        <v>0.92524863269168667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.94434417043503904</v>
+        <v>0.92390429928210738</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94855247739135162</v>
+        <v>0.92200757176386061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95099874409611718</v>
+        <v>0.91784034897956446</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95482234103455199</v>
+        <v>0.91524892235444433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.96004617495805378</v>
+        <v>0.91274247253012319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.97223041428808288</v>
+        <v>0.9090345861541651</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.97888676410840603</v>
+        <v>0.90792567320173578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99387535904451707</v>
+        <v>0.99385092014638832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98675835060375994</v>
+        <v>0.98158949469708301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98535986985213753</v>
+        <v>0.97886005809070953</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98409536384076524</v>
+        <v>0.97536096843369802</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96937442934802509</v>
+        <v>0.96963404023025346</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95635297870328073</v>
+        <v>0.95661258634848789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94989589004881303</v>
+        <v>0.95015549373373087</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.94310569829909296</v>
+        <v>0.94402465844226369</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93981233310130263</v>
+        <v>0.94266400955218754</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92698587137186927</v>
+        <v>0.93842907913794504</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91811525150280771</v>
+        <v>0.93600103045614702</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91419509989991776</v>
+        <v>0.93547151676775187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90654198293869914</v>
+        <v>0.93336425191089389</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.90486269620994464</v>
+        <v>0.93327823783730057</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.90434269017711155</v>
+        <v>0.93275823121931456</v>
       </c>
     </row>
   </sheetData>
